--- a/Entregables/UdeBarcelona/RFECV_Lasso.xlsx
+++ b/Entregables/UdeBarcelona/RFECV_Lasso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C445"/>
+  <dimension ref="A1:C423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,258 +453,258 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ffq_tortitas</t>
+          <t>fam_obesidad</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.125739083982694</v>
+        <v>9.755200810831465</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Palabras_moca</t>
+          <t>pgh_5d</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8.361858876502334</v>
+        <v>8.387834106551235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ffq_croissant</t>
+          <t>ffq_refrescsin</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7.736946739785687</v>
+        <v>8.279822606372708</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ipaq_nivel_af</t>
+          <t>Palabras_moca</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>7.141431312607224</v>
+        <v>8.162171456173732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isi_4</t>
+          <t>tom_sofrito</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>6.715084536052707</v>
+        <v>6.147677753607009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>otras_med</t>
+          <t>pgh_compañia</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.417080450243494</v>
+        <v>5.188012975171851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ffq_churro</t>
+          <t>otras_med</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5.510257807674748</v>
+        <v>5.1392179282371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pgh_5d</t>
+          <t>ffq_aguacate</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>4.549955376454318</v>
+        <v>4.766201391019074</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ffq_te</t>
+          <t>pgh_min_dormirse</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4.526798071219923</v>
+        <v>4.161252190173128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pgh_5j</t>
+          <t>menst_flag</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4.074020976753501</v>
+        <v>4.083464559762312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ffq_tomat</t>
+          <t>hemoglobina_orina</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.007116028905632</v>
+        <v>3.585185533107832</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>min_cama</t>
+          <t>ffq_lechug</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3.681496275651119</v>
+        <v>3.463995412425711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pgh_compañia</t>
+          <t>ffq_ac_oliva</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3.238594003121239</v>
+        <v>3.286806750172463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ac_folico_intraeritrocitos</t>
+          <t>min_cama</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>3.19256032186918</v>
+        <v>2.955192448207764</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ffq_v_blanco</t>
+          <t>selenio</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>3.176336449193006</v>
+        <v>2.628237227513519</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cv_p5</t>
+          <t>glucosa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.480224449479894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tom_sofrito</t>
+          <t>alergias_alim</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2.457776744688617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fam_obesidad</t>
+          <t>ipaq_min_int</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.262804798067136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ffq_lechug</t>
+          <t>ffq_vit_e</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.190537472474062</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ffq_surimi</t>
+          <t>pgh_5e</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,11 +713,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pgh_5a</t>
+          <t>pgh_5j</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ffq_ac_oliva</t>
+          <t>isi_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -739,11 +739,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cintura_cadera</t>
+          <t>cv_p2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -752,11 +752,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ffq_turrones</t>
+          <t>horas_sueño</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -765,11 +765,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>licopeno</t>
+          <t>vit_b12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ffq_agua</t>
+          <t>ffq_tomat</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -791,11 +791,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cv_p2</t>
+          <t>urobilinogeno_orina</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -804,11 +804,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ffq_whisky</t>
+          <t>hematies</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,11 +817,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>tom_aceite</t>
+          <t>pgh_5a</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -830,11 +830,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ipaq_min_int</t>
+          <t>cobre</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -843,11 +843,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>basofilos</t>
+          <t>ffq_arrozINT</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -856,11 +856,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pgh_min_dormirse</t>
+          <t>ffq_agua</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ffq_requeson</t>
+          <t>tipo_dieta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>horas_sueño</t>
+          <t>ffq_surimi</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,11 +895,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ffq_chocolate_negro</t>
+          <t>ffq_cereales_grouped</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,11 +908,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ffq_arrozINT</t>
+          <t>ffq_bebida_energetica</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,11 +921,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>isi_2</t>
+          <t>ffq_prot</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -934,11 +934,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>isi_5</t>
+          <t>ffq_retinoides</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -947,11 +947,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ffq_z_botella</t>
+          <t>pgh_5c</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -960,11 +960,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ffq_infusiones</t>
+          <t>ffq_pollopiel</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,11 +973,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ffq_pizzas</t>
+          <t>ffq_croquetas</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,11 +986,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cv_p3</t>
+          <t>ffq_zanahor</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,11 +999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>isi_total</t>
+          <t>ffq_c_conejo</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,11 +1012,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ffq_snack</t>
+          <t>ffq_pates</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ffq_p_fritascom</t>
+          <t>pgh_5g</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1038,11 +1038,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ffq_picante</t>
+          <t>ffq_p_aceite</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1051,11 +1051,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ffq_perejil</t>
+          <t>ffq_p_natural</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ffq_edulcorantes</t>
+          <t>ffq_almejas</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,11 +1077,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ffq_azuc</t>
+          <t>ffq_calamar</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,11 +1090,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ffq_mieles</t>
+          <t>ffq_crustaceos</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ffq_mermeladas</t>
+          <t>ffq_p_blanco</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ffq_sal</t>
+          <t>ffq_p_azul</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,11 +1129,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ffq_tomatefri</t>
+          <t>ffq_bacalao</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,11 +1142,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ffq_mayones</t>
+          <t>ffq_q_fresco</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1155,11 +1155,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ffq_mostaz</t>
+          <t>ffq_helados</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,11 +1168,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ffq_sopasobre</t>
+          <t>ffq_huevos</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ffq_croquetas</t>
+          <t>ffq_requeson</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ffq_cacao</t>
+          <t>ffq_quesito</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,11 +1207,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ffq_chocolates</t>
+          <t>ffq_quesos</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ffq_natilla</t>
+          <t>ffq_otros_lacteos</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,11 +1233,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ffq_pastel</t>
+          <t>ffq_nata_crema</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1246,11 +1246,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ffq_quesito</t>
+          <t>ffq_batidos</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1259,11 +1259,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cv_p7</t>
+          <t>ffq_bebidas_vegetales</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cv_p6</t>
+          <t>ffq_yogur_ent</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,11 +1285,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cv_p4</t>
+          <t>ffq_yogur_des</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1298,11 +1298,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ffq_bizcocho</t>
+          <t>ffq_leche_ent</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,11 +1311,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ffq_g_choco</t>
+          <t>ffq_leche_semi</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,11 +1324,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ffq_g_sinazucar</t>
+          <t>ffq_leche_desn</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1337,11 +1337,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ffq_g_integral</t>
+          <t>ffq_nuez</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1350,11 +1350,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ffq_g_maria</t>
+          <t>ffq_pistacho</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,11 +1363,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ffq_mantecacer</t>
+          <t>ffq_semillas</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1376,11 +1376,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ffq_mantequillas</t>
+          <t>ffq_pasas</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1389,11 +1389,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ffq_margarinas</t>
+          <t>ffq_almendras</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,11 +1402,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ffq_ac_mezcla</t>
+          <t>ffq_avellanas</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1415,11 +1415,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ffq_aceitunas</t>
+          <t>ffq_pina</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ffq_aguacate</t>
+          <t>ffq_uva</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,11 +1441,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ffq_ac_girasol</t>
+          <t>ffq_tropicales</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1454,11 +1454,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ffq_ac_olivavir</t>
+          <t>ffq_melocoton</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,11 +1467,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ffq_pates</t>
+          <t>ffq_sandi</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1480,11 +1480,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ffq_carnes_procesadas</t>
+          <t>ffq_kiwis</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,11 +1493,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ffq_otros_embutidos</t>
+          <t>ffq_manzanas</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,11 +1506,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ffq_j_cocido</t>
+          <t>ffq_fresa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1519,11 +1519,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ffq_j_serrano</t>
+          <t>ffq_cerezas</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1532,11 +1532,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ffq_higad</t>
+          <t>ffq_sofrito</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,11 +1545,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ffq_bacon</t>
+          <t>ffq_naranjas</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,11 +1558,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ffq_hamburguesa</t>
+          <t>ffq_platanos</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1571,11 +1571,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ffq_c_conejo</t>
+          <t>ffq_seta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,11 +1584,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ffq_c_cordero</t>
+          <t>ffq_p_cocidas</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1597,11 +1597,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ffq_c_cerdonomagra</t>
+          <t>ffq_p_fritascas</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1610,11 +1610,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ffq_c_cerdomagra</t>
+          <t>ffq_otrasver</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,11 +1623,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ffq_c_ternera</t>
+          <t>ffq_cebollas</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,11 +1636,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ffq_pollonopiel</t>
+          <t>ffq_ajos</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1649,11 +1649,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ffq_pollopiel</t>
+          <t>ffq_pimientos</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ffq_q_fresco</t>
+          <t>ffq_esparragos</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ffq_quesos</t>
+          <t>ffq_gazpach</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,11 +1688,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ffq_p_natural</t>
+          <t>ffq_acelgas</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1701,11 +1701,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ffq_p_aceite</t>
+          <t>ffq_jverde</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ffq_crustaceos</t>
+          <t>ffq_calabacin</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,11 +1727,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ffq_calamar</t>
+          <t>pgh_somnolencias</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -1740,11 +1740,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ffq_almejas</t>
+          <t>ffq_alubiaseca</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ffq_bacalao</t>
+          <t>ffq_coles</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,11 +1766,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ffq_p_azul</t>
+          <t>ffq_espagueti</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,11 +1779,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ffq_p_blanco</t>
+          <t>ffq_garbanzos</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ffq_huevos</t>
+          <t>ffq_guisantes</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,11 +1805,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ffq_helados</t>
+          <t>ffq_arrozblan</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1818,11 +1818,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ffq_batidos</t>
+          <t>ffq_quinoa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,11 +1831,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ffq_nata_crema</t>
+          <t>ffq_lenteja</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ffq_otros_lacteos</t>
+          <t>ffq_panblanco</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ffq_yogur_des</t>
+          <t>ffq_muesli</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,11 +1870,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ffq_yogur_ent</t>
+          <t>ffq_pastaINT</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,11 +1883,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ffq_bebidas_vegetales</t>
+          <t>cv_psychological</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1896,11 +1896,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ffq_leche_desn</t>
+          <t>cv_enviroment</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -1909,11 +1909,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ffq_leche_semi</t>
+          <t>ffq_paninteg</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ffq_leche_ent</t>
+          <t>cv_p26</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,11 +1935,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ffq_semillas</t>
+          <t>cv_physical</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ffq_pistacho</t>
+          <t>cv_social_relationships</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,11 +1961,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ffq_nuez</t>
+          <t>cv_p23</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ffq_avellanas</t>
+          <t>cv_p25</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,11 +1987,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ffq_almendras</t>
+          <t>cv_percepcion_calidad_vida</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,11 +2000,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ffq_pasas</t>
+          <t>cv_p20</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,11 +2013,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ffq_tropicales</t>
+          <t>cv_p22</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ffq_uva</t>
+          <t>cv_p24</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,11 +2039,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ffq_pina</t>
+          <t>cv_p17</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,11 +2052,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ffq_kiwis</t>
+          <t>cv_p19</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,11 +2065,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ffq_sandi</t>
+          <t>cv_p21</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,11 +2078,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ffq_melocoton</t>
+          <t>cv_p14</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2091,11 +2091,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ffq_cerezas</t>
+          <t>cv_p16</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,11 +2104,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ffq_fresa</t>
+          <t>cv_p18</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2117,11 +2117,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ffq_manzanas</t>
+          <t>cv_p11</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,11 +2130,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ffq_platanos</t>
+          <t>cv_p13</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,11 +2143,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ffq_naranjas</t>
+          <t>cv_p15</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ffq_sofrito</t>
+          <t>cv_p8</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,11 +2169,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ffq_p_fritascas</t>
+          <t>cv_p10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ffq_p_cocidas</t>
+          <t>cv_p12</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2195,11 +2195,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ffq_seta</t>
+          <t>cv_p5</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,11 +2208,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ffq_ajos</t>
+          <t>cv_p7</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2221,11 +2221,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ffq_cebollas</t>
+          <t>cv_p9</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2234,11 +2234,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ffq_otrasver</t>
+          <t>cv_p3</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ffq_gazpach</t>
+          <t>cv_p4</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2260,11 +2260,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ffq_esparragos</t>
+          <t>cv_p6</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2273,11 +2273,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ffq_pimientos</t>
+          <t>isi_4</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2286,11 +2286,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ffq_calabacin</t>
+          <t>isi_5</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2299,11 +2299,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ffq_jverde</t>
+          <t>isi_total</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2312,11 +2312,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ffq_zanahor</t>
+          <t>pgh_compañia_d</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2325,11 +2325,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ffq_coles</t>
+          <t>isi_1c</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2338,11 +2338,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ffq_acelgas</t>
+          <t>isi_3</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ffq_guisantes</t>
+          <t>ad_dietamed</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ffq_garbanzos</t>
+          <t>isi_1a</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2377,11 +2377,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ffq_alubiaseca</t>
+          <t>isi_1b</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,11 +2390,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ffq_lenteja</t>
+          <t>wcst_te_t</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,11 +2403,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ffq_quinoa</t>
+          <t>pgh_compañia_a</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -2416,11 +2416,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ffq_espagueti</t>
+          <t>pgh_compañia_c</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,11 +2429,11 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ffq_pastaINT</t>
+          <t>d2_vt_pd</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -2442,11 +2442,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ffq_arrozblan</t>
+          <t>pgh_tener_animos</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2455,11 +2455,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ffq_muesli</t>
+          <t>pgh_compañia_b</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -2468,11 +2468,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ffq_cerealdes</t>
+          <t>ipaq_nivel_af</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,11 +2481,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ffq_paninteg</t>
+          <t>pgh_calidad_sueño</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ffq_panblanco</t>
+          <t>pgh_med_dormir</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>cv_enviroment</t>
+          <t>ipaq_mets</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,11 +2520,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>cv_social_relationships</t>
+          <t>pgh_5h</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2533,11 +2533,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>cv_psychological</t>
+          <t>pgh_5i</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>cv_physical</t>
+          <t>ipaq_horas_sent</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,11 +2559,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida</t>
+          <t>pgh_5b</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2572,11 +2572,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>cv_p26</t>
+          <t>pgh_5f</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2585,11 +2585,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>cv_p25</t>
+          <t>ipaq_min_cam</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2598,11 +2598,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>cv_p24</t>
+          <t>wcst_pp_pd</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -2611,11 +2611,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>cv_p23</t>
+          <t>fn_cara</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -2624,11 +2624,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>cv_p22</t>
+          <t>ipaq_dias_cam</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2637,11 +2637,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>cv_p21</t>
+          <t>wcst_cc_pd</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2650,11 +2650,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>cv_p20</t>
+          <t>wcst_cc_t</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -2663,11 +2663,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>cv_p19</t>
+          <t>ipaq_min_mod</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,11 +2676,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>cv_p18</t>
+          <t>d2_e_pd</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -2689,11 +2689,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>cv_p17</t>
+          <t>depresion</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2702,11 +2702,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>cv_p16</t>
+          <t>ipaq_dias_mod</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -2715,11 +2715,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>cv_p15</t>
+          <t>fn_letra</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -2728,11 +2728,11 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>cv_p14</t>
+          <t>fn_nombre</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2741,11 +2741,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>cv_p13</t>
+          <t>ipaq_dias_int</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -2754,11 +2754,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>cv_p12</t>
+          <t>wcst_pp_t</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -2767,11 +2767,11 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>cv_p11</t>
+          <t>wcst_ife_pd</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -2780,11 +2780,11 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>cv_p10</t>
+          <t>ind_frag_sueño</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2793,11 +2793,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>cv_p9</t>
+          <t>ind_mov</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2806,11 +2806,11 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>cv_p8</t>
+          <t>wcst_ep_t</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2819,11 +2819,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>isi_3</t>
+          <t>num_despertares</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -2832,11 +2832,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ipaq_dias_mod</t>
+          <t>duracion_despertares</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2845,11 +2845,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>isi_1c</t>
+          <t>wcst_años_educacion</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -2858,11 +2858,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>isi_1b</t>
+          <t>pasos_dia</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2871,11 +2871,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>isi_1a</t>
+          <t>eficiencia_sueño</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2884,11 +2884,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>pgh_compañia_d</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -2897,11 +2897,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>pgh_compañia_c</t>
+          <t>tiempo_sedentario</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2910,11 +2910,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>pgh_compañia_b</t>
+          <t>af_ligera</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2923,11 +2923,11 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>pgh_compañia_a</t>
+          <t>af_ligera_porcentaje</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2936,11 +2936,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>pgh_calidad_sueño</t>
+          <t>imc</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2949,11 +2949,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>pgh_tener_animos</t>
+          <t>musculo</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>pgh_somnolencias</t>
+          <t>grasa_vic</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2975,11 +2975,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>pgh_med_dormir</t>
+          <t>medicamentos</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ipaq_dias_cam</t>
+          <t>bristol</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -3001,11 +3001,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ipaq_min_mod</t>
+          <t>talla</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>pgh_5i</t>
+          <t>vit_d3</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3027,11 +3027,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>pgh_5h</t>
+          <t>enf</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3040,11 +3040,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>pgh_5g</t>
+          <t>antibioticos</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -3053,11 +3053,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>pgh_5f</t>
+          <t>t3</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -3066,11 +3066,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>pgh_5e</t>
+          <t>cortisol</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -3079,11 +3079,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>pgh_5b</t>
+          <t>insulina</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -3092,11 +3092,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>pgh_5c</t>
+          <t>fibrinogeno</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -3105,11 +3105,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>depresion</t>
+          <t>tsh</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3118,11 +3118,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ad_dietamed</t>
+          <t>t4</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -3131,11 +3131,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>fn_nombre</t>
+          <t>inr</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -3144,11 +3144,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>fn_letra</t>
+          <t>tiempo_tromboplastina</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -3157,11 +3157,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>fn_cara</t>
+          <t>tiempo_tromboplastina_rati</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>wcst_ife_pd</t>
+          <t>eosinofilos</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -3183,11 +3183,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>wcst_pp_t</t>
+          <t>linfocitos</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>197</v>
+        <v>66</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -3196,11 +3196,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>wcst_pp_pd</t>
+          <t>tiempo_protrombina_porcentaje</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>wcst_te_t</t>
+          <t>linfocitos_porcentaje</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3222,11 +3222,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>wcst_ep_t</t>
+          <t>monocitos_porcentaje</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -3235,11 +3235,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>wcst_cc_t</t>
+          <t>neutrofilos</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -3248,11 +3248,11 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>wcst_cc_pd</t>
+          <t>neutrofilos_porcentaje</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -3261,11 +3261,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>wcst_años_educacion</t>
+          <t>eosinofilos_porcentaje</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -3274,11 +3274,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>d2_e_pd</t>
+          <t>basofilos_porcentaje</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -3287,11 +3287,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>d2_vt_pd</t>
+          <t>ade</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -3300,11 +3300,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>d2_con_pd</t>
+          <t>plaquetas</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -3313,11 +3313,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ipaq_mets</t>
+          <t>vol_plaquetario</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -3326,11 +3326,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ipaq_horas_sent</t>
+          <t>vcm</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ipaq_min_cam</t>
+          <t>hcm</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -3352,11 +3352,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ipaq_dias_int</t>
+          <t>chcm</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -3365,11 +3365,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ind_mov</t>
+          <t>alfa1_globulina</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -3378,11 +3378,11 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ind_frag_sueño</t>
+          <t>zinc</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -3391,11 +3391,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>duracion_despertares</t>
+          <t>hematocrito</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>num_despertares</t>
+          <t>gamma_globulina</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -3417,11 +3417,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>fosforo</t>
+          <t>ac_folico_intraeritrocitos</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>eficiencia_sueño</t>
+          <t>ac_folico_serico</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -3443,11 +3443,11 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>pasos_dia</t>
+          <t>ferritina</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>af_ligera_porcentaje</t>
+          <t>col_hdl</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -3469,11 +3469,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>medicamentos</t>
+          <t>homocisteina_basal</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -3482,11 +3482,11 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>antibioticos</t>
+          <t>ggt</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3495,11 +3495,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>enf</t>
+          <t>col_ldl</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -3508,11 +3508,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>vit_d3</t>
+          <t>apolipoproteina_a1</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3521,11 +3521,11 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>insulina</t>
+          <t>asat</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -3534,11 +3534,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>inr</t>
+          <t>prealbumina</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3547,11 +3547,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>tiempo_protrombina_porcentaje</t>
+          <t>transferrina</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -3560,11 +3560,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>neutrofilos</t>
+          <t>ac_urico</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -3573,11 +3573,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>plaquetas</t>
+          <t>magnesio</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -3586,11 +3586,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ade</t>
+          <t>beta_globulina</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3599,11 +3599,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>selenio</t>
+          <t>creatinina</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -3612,11 +3612,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>gamma_globulina</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -3625,11 +3625,11 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>leucocitos_orina</t>
+          <t>densidad_orina</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3638,11 +3638,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>prealbumina</t>
+          <t>bun</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -3651,11 +3651,11 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>alcohol</t>
+          <t>bilirrubina_total</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -3664,11 +3664,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>tabaco</t>
+          <t>fosforo</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -3677,11 +3677,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>tipo_dieta</t>
+          <t>cafe</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3690,11 +3690,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>af_libre</t>
+          <t>fam_diabetes</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3703,11 +3703,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>af_trabajo</t>
+          <t>fam_colesterol</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -3716,11 +3716,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ejercicio</t>
+          <t>nivel_e</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3729,11 +3729,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>nivel_e</t>
+          <t>ejercicio</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -3742,11 +3742,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>personas_hogar</t>
+          <t>af_libre</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -3755,11 +3755,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>edo_civil</t>
+          <t>trigliceridos</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>edad</t>
+          <t>ffq_c_cerdomagra</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -3781,11 +3781,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>indice_albumina_creatinina</t>
+          <t>ffq_c_cordero</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -3794,11 +3794,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>imc</t>
+          <t>ffq_pollonopiel</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -3807,11 +3807,11 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>talla</t>
+          <t>ffq_c_ternera</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -3820,11 +3820,11 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>bristol</t>
+          <t>tom_dias</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -3833,11 +3833,11 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ffq_refrescos</t>
+          <t>edad</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -3846,11 +3846,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ffq_v_tintoañej</t>
+          <t>edo_civil</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -3859,11 +3859,11 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ffq_cafedesc</t>
+          <t>personas_hogar</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -3872,11 +3872,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>albumina_orina_num</t>
+          <t>creatinina_orina</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -3885,11 +3885,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ffq_v_rosado</t>
+          <t>albumina_orina_num</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -3898,11 +3898,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ffq_cervezas</t>
+          <t>ffq_vit_b3</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>253</v>
+        <v>85</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -3924,11 +3924,11 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ffq_licores</t>
+          <t>puntaje_moca</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -3937,11 +3937,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ffq_z_frutasnat</t>
+          <t>menst_tipo_MEF</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -3950,11 +3950,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ffq_z_natural</t>
+          <t>alfa2_globulina</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -3963,11 +3963,11 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ffq_refrescsin</t>
+          <t>ffq_aceitunas</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -3976,11 +3976,11 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>magnesio</t>
+          <t>ffq_ac_mezcla</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>proteinas_totales</t>
+          <t>frec_alcohol</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -4002,11 +4002,11 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>lipasa</t>
+          <t>fam_acvascular</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -4015,11 +4015,11 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>alergias_alim</t>
+          <t>total_meds</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -4028,11 +4028,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ffq_hc</t>
+          <t>ffq_higad</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -4041,11 +4041,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>bilirrubina_total</t>
+          <t>ffq_otros_embutidos</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -4054,11 +4054,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ffq_alcohol</t>
+          <t>ffq_carnes_procesadas</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -4067,11 +4067,11 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>cortisol</t>
+          <t>ffq_j_serrano</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -4080,11 +4080,11 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>pcr</t>
+          <t>ffq_j_cocido</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -4093,11 +4093,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ffq_colesterol</t>
+          <t>ffq_energiatot</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -4106,11 +4106,11 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t3</t>
+          <t>albumina_porcentaje</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -4119,11 +4119,11 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t4</t>
+          <t>ffq_hamburguesa</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -4132,11 +4132,11 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>tsh</t>
+          <t>ffq_bacon</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -4145,11 +4145,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>fibrinogeno</t>
+          <t>covid</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>271</v>
+        <v>91</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -4158,11 +4158,11 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>tiempo_tromboplastina_rati</t>
+          <t>ffq_c_cerdonomagra</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>272</v>
+        <v>91</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -4171,11 +4171,11 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ffq_k</t>
+          <t>num_depo_Una Por Día</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -4184,11 +4184,11 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ffq_cafes</t>
+          <t>indice_albumina_creatinina</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -4197,11 +4197,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>prebioticos</t>
+          <t>ffq_sopasobre</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>275</v>
+        <v>92</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -4210,11 +4210,11 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>tiempo_tromboplastina</t>
+          <t>ffq_edulcorantes</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>glucosa</t>
+          <t>hierro</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -4236,11 +4236,11 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ffq_vit_a</t>
+          <t>ffq_mantecacer</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -4249,11 +4249,11 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>hcm</t>
+          <t>ffq_chocolate_negro</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -4262,11 +4262,11 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ffq_bebida_energetica</t>
+          <t>fam_hta</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -4275,11 +4275,11 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>alat</t>
+          <t>fam_enfgastro</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -4288,11 +4288,11 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ffq_energiatot</t>
+          <t>prebioticos</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -4301,11 +4301,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ffq_protveg</t>
+          <t>ffq_ac_olivavir</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>283</v>
+        <v>95</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>hemoglobina_glicada</t>
+          <t>ffq_ac_girasol</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>284</v>
+        <v>95</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -4327,11 +4327,11 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>vsg</t>
+          <t>ffq_cerveza_grouped</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>monocitos</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -4353,11 +4353,11 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ffq_polisacaridos</t>
+          <t>ffq_pizzas</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -4366,11 +4366,11 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>sodio</t>
+          <t>pgh_por_eficiencia</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -4379,11 +4379,11 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ffq_vit_b2</t>
+          <t>fam_cardiacos</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ffq_cerveza_sin</t>
+          <t>ffq_cafedesc</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -4405,11 +4405,11 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ffq_prot</t>
+          <t>ffq_cafes</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -4418,11 +4418,11 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>linfocitos</t>
+          <t>basofilos</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>292</v>
+        <v>98</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -4431,11 +4431,11 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>homocisteina_basal</t>
+          <t>ffq_margarinas</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -4444,11 +4444,11 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>eosinofilos</t>
+          <t>ffq_mantequillas</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -4457,11 +4457,11 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ferritina</t>
+          <t>cambios_apetito</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>295</v>
+        <v>99</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -4470,11 +4470,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ffq_v_tintojov</t>
+          <t>ffq_p_fritascom</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -4483,11 +4483,11 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>asat</t>
+          <t>ffq_snack</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -4496,11 +4496,11 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ffq_na</t>
+          <t>ph_orina</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>298</v>
+        <v>100</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -4509,11 +4509,11 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ffq_azucares</t>
+          <t>ffq_tomatefri</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -4522,11 +4522,11 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>monocitos_porcentaje</t>
+          <t>ffq_sal</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -4535,11 +4535,11 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>linfocitos_porcentaje</t>
+          <t>ffq_mostaz</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -4548,11 +4548,11 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>basofilos_porcentaje</t>
+          <t>ffq_mayones</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -4561,11 +4561,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>eosinofilos_porcentaje</t>
+          <t>PAD_media</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -4574,11 +4574,11 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>neutrofilos_porcentaje</t>
+          <t>ffq_polisacaridos</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -4587,11 +4587,11 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>tom_dias</t>
+          <t>ffq_na</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>305</v>
+        <v>102</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -4600,11 +4600,11 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ffq_protanim</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -4613,11 +4613,11 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ffq_ags</t>
+          <t>monocitos</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -4626,11 +4626,11 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>creatinina</t>
+          <t>ffq_ags</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -4639,11 +4639,11 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>vol_plaquetario</t>
+          <t>ffq_colesterol</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -4652,11 +4652,11 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>cafe</t>
+          <t>ffq_protanim</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>310</v>
+        <v>104</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>albumina_porcentaje</t>
+          <t>ffq_protveg</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>311</v>
+        <v>104</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -4678,11 +4678,11 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ffq_agp</t>
+          <t>ffq_alcohol</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>312</v>
+        <v>104</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -4691,11 +4691,11 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ffq_cavas</t>
+          <t>cambios_sueño</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -4704,11 +4704,11 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>fam_enfgastro</t>
+          <t>mg_dia_licopeno</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -4717,11 +4717,11 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ffq_vit_b3</t>
+          <t>leucocitos_sed_Moderado</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>315</v>
+        <v>105</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -4730,11 +4730,11 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>chcm</t>
+          <t>vsg</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>316</v>
+        <v>106</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -4743,11 +4743,11 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>vitaminas</t>
+          <t>ffq_te</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>317</v>
+        <v>106</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4756,11 +4756,11 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>hematocrito</t>
+          <t>ffq_hc</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>318</v>
+        <v>106</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -4769,11 +4769,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>hematies</t>
+          <t>int_quirugica</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>319</v>
+        <v>107</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -4782,11 +4782,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>tom_crudo</t>
+          <t>ffq_infusiones</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4795,11 +4795,11 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>cobre</t>
+          <t>ffq_refrescos</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>321</v>
+        <v>107</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -4808,11 +4808,11 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ffq_agm</t>
+          <t>hemoglobina_glicada</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>322</v>
+        <v>108</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -4821,11 +4821,11 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>fam_hta</t>
+          <t>ffq_ca</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -4834,11 +4834,11 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>zinc</t>
+          <t>ffq_vit_a</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -4847,11 +4847,11 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>hierro</t>
+          <t>af_trabajo</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>325</v>
+        <v>109</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -4860,11 +4860,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>vcm</t>
+          <t>filtrado_glomerular</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4873,11 +4873,11 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ffq_retinoides</t>
+          <t>leucocitos_orina</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>327</v>
+        <v>109</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4886,11 +4886,11 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ffq_vit_b1</t>
+          <t>siesta</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>328</v>
+        <v>110</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4899,11 +4899,11 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ac_folico_serico</t>
+          <t>ffq_agm</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -4912,11 +4912,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>fam_colesterol</t>
+          <t>ffq_agp</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>330</v>
+        <v>110</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -4925,11 +4925,11 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ffq_vit_e</t>
+          <t>pcr</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>331</v>
+        <v>111</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -4938,11 +4938,11 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>vit_b12</t>
+          <t>luteina</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4951,11 +4951,11 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>calcio</t>
+          <t>bacterias_sed_Escaso</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>333</v>
+        <v>111</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -4964,11 +4964,11 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>musculo</t>
+          <t>vitaminas</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>334</v>
+        <v>112</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -4977,11 +4977,11 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>betacaroteno</t>
+          <t>suplementos</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>335</v>
+        <v>112</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>tom_otro</t>
+          <t>bacterias_sed_Negativo</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>336</v>
+        <v>112</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -5003,11 +5003,11 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>tom_micro</t>
+          <t>horas_sueño_fs</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>337</v>
+        <v>113</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -5016,11 +5016,11 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ffq_ca</t>
+          <t>tom_crudo</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>338</v>
+        <v>113</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>fam_diabetes</t>
+          <t>tom_cocido</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>339</v>
+        <v>113</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -5042,11 +5042,11 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>af_ligera</t>
+          <t>tom_momento</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>340</v>
+        <v>114</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -5055,11 +5055,11 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>grasa_vic</t>
+          <t>tom_aceite</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>341</v>
+        <v>114</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -5068,11 +5068,11 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>zeaxantina</t>
+          <t>leucocitos_sed_Negativo</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>342</v>
+        <v>114</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -5081,11 +5081,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>luteina</t>
+          <t>potasio</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>343</v>
+        <v>115</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -5094,11 +5094,11 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>tom_no</t>
+          <t>ffq_vit_b12</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>344</v>
+        <v>115</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5107,11 +5107,11 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>fam_acvascular</t>
+          <t>ffq_vit_c</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -5120,11 +5120,11 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>tiempo_sedentario</t>
+          <t>calcio</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -5133,11 +5133,11 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>tom_cocido</t>
+          <t>ffq_vit_b1</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>347</v>
+        <v>116</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -5146,11 +5146,11 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>albumina</t>
+          <t>ffq_vit_b2</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -5159,11 +5159,11 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>apolipoproteina_a1</t>
+          <t>descansa</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>349</v>
+        <v>117</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -5172,11 +5172,11 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>col_hdl</t>
+          <t>ffq_vit_d</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>350</v>
+        <v>117</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -5185,11 +5185,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ffq_vit_c</t>
+          <t>ffq_botanas_grouped</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -5198,11 +5198,11 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>mg_dia_licopeno</t>
+          <t>betacaroteno</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>352</v>
+        <v>118</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -5211,11 +5211,11 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>amilasa</t>
+          <t>cintura_media</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>353</v>
+        <v>118</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -5224,11 +5224,11 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ffq_vit_b12</t>
+          <t>dif_crono_pheno</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>354</v>
+        <v>118</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -5237,11 +5237,11 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>col_ldl</t>
+          <t>cloro</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>355</v>
+        <v>119</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -5250,11 +5250,11 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>transferrina</t>
+          <t>zeaxantina</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>356</v>
+        <v>119</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -5263,11 +5263,11 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>FC_media</t>
+          <t>alfacaroteno</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>357</v>
+        <v>119</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -5276,11 +5276,11 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ggt</t>
+          <t>fosfatasa_alcalina</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>358</v>
+        <v>120</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -5289,11 +5289,11 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>fosfatasa_alcalina</t>
+          <t>ldh</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>359</v>
+        <v>120</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -5302,11 +5302,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ffq_vit_d</t>
+          <t>betacriptoxantina</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -5315,11 +5315,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>covid</t>
+          <t>tom_no</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>361</v>
+        <v>121</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -5328,11 +5328,11 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>filtrado_glomerular</t>
+          <t>tom_completo</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>362</v>
+        <v>121</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -5341,11 +5341,11 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>tom_fa</t>
+          <t>menst_tipo_MPM</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>363</v>
+        <v>121</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -5354,11 +5354,11 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>beta_globulina</t>
+          <t>tom_fa</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>364</v>
+        <v>122</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -5367,11 +5367,11 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>hads_score</t>
+          <t>tom_otro</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>365</v>
+        <v>122</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -5380,11 +5380,11 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>adherencia_lic</t>
+          <t>ffq_vino_tinto_grouped</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>366</v>
+        <v>122</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -5393,11 +5393,11 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>alfa2_globulina</t>
+          <t>tom_horno</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -5406,11 +5406,11 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>cadera_media</t>
+          <t>tom_micro</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>368</v>
+        <v>123</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -5419,11 +5419,11 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>cintura_media</t>
+          <t>ffq_especias_grouped</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>369</v>
+        <v>123</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -5432,11 +5432,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>tom_horno</t>
+          <t>puntaje_audit</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>370</v>
+        <v>124</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -5445,11 +5445,11 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>fam_cardiacos</t>
+          <t>pgh_disfuncion_dia</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>371</v>
+        <v>124</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -5458,11 +5458,11 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>alfa1_globulina</t>
+          <t>pgh_duracion_sueño</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>372</v>
+        <v>124</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -5471,11 +5471,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>puntaje_moca</t>
+          <t>proteinas_totales</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>373</v>
+        <v>125</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -5484,11 +5484,11 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>fn_score</t>
+          <t>hads_score</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>374</v>
+        <v>125</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5497,11 +5497,11 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ac_urico</t>
+          <t>pgh_latencia</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -5510,11 +5510,11 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>tom_momento</t>
+          <t>sodio</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>376</v>
+        <v>126</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -5523,11 +5523,11 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>trigliceridos</t>
+          <t>fn_score</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>377</v>
+        <v>126</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -5536,11 +5536,11 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>int_quirugica</t>
+          <t>phenoage</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -5549,11 +5549,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>alfacaroteno</t>
+          <t>cadera_media</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>379</v>
+        <v>127</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -5562,11 +5562,11 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>creatinina_orina</t>
+          <t>cintura_cadera</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>380</v>
+        <v>127</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -5575,11 +5575,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>pgh_total</t>
+          <t>ffq_postres_grouped</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>381</v>
+        <v>127</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>pgh_disfuncion_dia</t>
+          <t>albumina</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>382</v>
+        <v>128</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -5601,11 +5601,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>pgh_por_eficiencia</t>
+          <t>licopeno</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>383</v>
+        <v>128</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -5614,11 +5614,11 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>horas_cama</t>
+          <t>FC_media</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -5627,11 +5627,11 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>pgh_latencia</t>
+          <t>lipasa</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>385</v>
+        <v>129</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -5640,11 +5640,11 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>betacriptoxantina</t>
+          <t>pgh_h_levantarse</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>386</v>
+        <v>129</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -5653,11 +5653,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>cambios_sueño</t>
+          <t>pgh_h_acostarse</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>387</v>
+        <v>129</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>urobilinogeno_orina</t>
+          <t>adherencia_lic</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>388</v>
+        <v>130</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -5679,11 +5679,11 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>pgh_duracion_sueño</t>
+          <t>sexo_M</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>389</v>
+        <v>130</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -5692,11 +5692,11 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>pgh_perturbaciones</t>
+          <t>ffq_jugos_grouped</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>390</v>
+        <v>130</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -5705,11 +5705,11 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>bun</t>
+          <t>amilasa</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>391</v>
+        <v>131</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -5718,11 +5718,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>tom_completo</t>
+          <t>pgh_total</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -5731,11 +5731,11 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>hemoglobina_orina</t>
+          <t>cat_pgh_total</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>393</v>
+        <v>131</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -5744,11 +5744,11 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>cambios_apetito</t>
+          <t>frec_alcohol_audit</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>394</v>
+        <v>132</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -5757,11 +5757,11 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>dif_crono_pheno</t>
+          <t>horas_cama</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>395</v>
+        <v>132</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -5770,11 +5770,11 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ph_orina</t>
+          <t>ffq_azucares_grouped</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>396</v>
+        <v>132</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -5783,11 +5783,11 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>bacterias_sed_Escaso</t>
+          <t>pgh_eficiencia</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -5796,11 +5796,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>menst_tipo_MEF</t>
+          <t>pgh_perturbaciones</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>398</v>
+        <v>133</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -5809,11 +5809,11 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>pgh_h_levantarse</t>
+          <t>ffq_otros_vinos_grouped</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -5822,11 +5822,11 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>sexo_M</t>
+          <t>celulas_epiteliales_sed_Negativo</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>400</v>
+        <v>134</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -5835,11 +5835,11 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>total_meds</t>
+          <t>fibra_mucoide_sed_Negativo</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>401</v>
+        <v>134</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>phenoage</t>
+          <t>num_depo_Dos + Por Día</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>402</v>
+        <v>134</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5861,11 +5861,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>potasio</t>
+          <t>hematies_sed_(10-20)</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>403</v>
+        <v>135</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>densidad_orina</t>
+          <t>hematies_sed_Negativo</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>404</v>
+        <v>135</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -5887,11 +5887,11 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>menst_tipo_MPM</t>
+          <t>ffq_licores_grouped</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>405</v>
+        <v>135</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5900,11 +5900,11 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>pgh_h_acostarse</t>
+          <t>tabaco</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>406</v>
+        <v>136</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5913,11 +5913,11 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>suplementos</t>
+          <t>tipo_alcohol</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>407</v>
+        <v>136</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5926,299 +5926,13 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>bacterias_sed_Negativo</t>
+          <t>observaciones_Si</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>408</v>
+        <v>136</v>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>siesta</t>
-        </is>
-      </c>
-      <c r="B424" t="n">
-        <v>409</v>
-      </c>
-      <c r="C424" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>descansa</t>
-        </is>
-      </c>
-      <c r="B425" t="n">
-        <v>410</v>
-      </c>
-      <c r="C425" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>hematies_sed_(10-20)</t>
-        </is>
-      </c>
-      <c r="B426" t="n">
-        <v>411</v>
-      </c>
-      <c r="C426" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>leucocitos_sed_Moderado</t>
-        </is>
-      </c>
-      <c r="B427" t="n">
-        <v>412</v>
-      </c>
-      <c r="C427" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>num_depo_Una Por Día</t>
-        </is>
-      </c>
-      <c r="B428" t="n">
-        <v>413</v>
-      </c>
-      <c r="C428" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>celulas_epiteliales_sed_Negativo</t>
-        </is>
-      </c>
-      <c r="B429" t="n">
-        <v>414</v>
-      </c>
-      <c r="C429" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>num_depo_Dos + Por Día</t>
-        </is>
-      </c>
-      <c r="B430" t="n">
-        <v>415</v>
-      </c>
-      <c r="C430" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>fibra_mucoide_sed_Negativo</t>
-        </is>
-      </c>
-      <c r="B431" t="n">
-        <v>416</v>
-      </c>
-      <c r="C431" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>hematies_sed_Negativo</t>
-        </is>
-      </c>
-      <c r="B432" t="n">
-        <v>417</v>
-      </c>
-      <c r="C432" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>cat_pgh_total</t>
-        </is>
-      </c>
-      <c r="B433" t="n">
-        <v>418</v>
-      </c>
-      <c r="C433" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>horas_sueño_fs</t>
-        </is>
-      </c>
-      <c r="B434" t="n">
-        <v>419</v>
-      </c>
-      <c r="C434" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>puntaje_audit</t>
-        </is>
-      </c>
-      <c r="B435" t="n">
-        <v>420</v>
-      </c>
-      <c r="C435" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>ldh</t>
-        </is>
-      </c>
-      <c r="B436" t="n">
-        <v>421</v>
-      </c>
-      <c r="C436" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>menst_flag</t>
-        </is>
-      </c>
-      <c r="B437" t="n">
-        <v>422</v>
-      </c>
-      <c r="C437" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>cloro</t>
-        </is>
-      </c>
-      <c r="B438" t="n">
-        <v>423</v>
-      </c>
-      <c r="C438" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>pgh_eficiencia</t>
-        </is>
-      </c>
-      <c r="B439" t="n">
-        <v>424</v>
-      </c>
-      <c r="C439" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>tipo_alcohol</t>
-        </is>
-      </c>
-      <c r="B440" t="n">
-        <v>425</v>
-      </c>
-      <c r="C440" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>frec_alcohol</t>
-        </is>
-      </c>
-      <c r="B441" t="n">
-        <v>426</v>
-      </c>
-      <c r="C441" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>observaciones_Si</t>
-        </is>
-      </c>
-      <c r="B442" t="n">
-        <v>427</v>
-      </c>
-      <c r="C442" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>frec_alcohol_audit</t>
-        </is>
-      </c>
-      <c r="B443" t="n">
-        <v>428</v>
-      </c>
-      <c r="C443" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>PAD_media</t>
-        </is>
-      </c>
-      <c r="B444" t="n">
-        <v>429</v>
-      </c>
-      <c r="C444" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>leucocitos_sed_Negativo</t>
-        </is>
-      </c>
-      <c r="B445" t="n">
-        <v>430</v>
-      </c>
-      <c r="C445" t="n">
         <v>0</v>
       </c>
     </row>
